--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_MCPS_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_MCPS_General.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>1.056756157276295</v>
+        <v>1.186326107176505</v>
       </c>
       <c r="D2">
-        <v>0.2906735474884687</v>
+        <v>0.2437175369959372</v>
       </c>
       <c r="E2">
         <v>1.613950465310665</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.4297425560716652</v>
+        <v>0.5933591361037441</v>
       </c>
       <c r="D3">
-        <v>0.6674012983669608</v>
+        <v>0.5568677807855156</v>
       </c>
       <c r="E3">
         <v>1.613950465310665</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.2092360824335225</v>
+        <v>0.3870258154781731</v>
       </c>
       <c r="D4">
-        <v>0.8342724039708869</v>
+        <v>0.7011490788219672</v>
       </c>
       <c r="E4">
         <v>1.613950465310665</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.3124928495247264</v>
+        <v>0.3356239433668402</v>
       </c>
       <c r="D5">
-        <v>0.7546789271913621</v>
+        <v>0.7392167487225039</v>
       </c>
       <c r="E5">
         <v>1.613950465310665</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-1.026869669530758</v>
+        <v>-1.383396247327637</v>
       </c>
       <c r="D6">
-        <v>0.3045311273856759</v>
+        <v>0.1755602232398183</v>
       </c>
       <c r="E6">
         <v>1.419266808272961</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-1.002705098150298</v>
+        <v>-0.9225646697493678</v>
       </c>
       <c r="D7">
-        <v>0.3160513162967051</v>
+        <v>0.3627349729882203</v>
       </c>
       <c r="E7">
         <v>1.419266808272961</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.78338534105462</v>
+        <v>-0.6552796833710455</v>
       </c>
       <c r="D8">
-        <v>0.4334376790580916</v>
+        <v>0.5166971434405343</v>
       </c>
       <c r="E8">
         <v>1.419266808272961</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.1748409012339643</v>
+        <v>-0.2578715375611314</v>
       </c>
       <c r="D9">
-        <v>0.8612116731362325</v>
+        <v>0.7980605422277851</v>
       </c>
       <c r="E9">
         <v>1.546586394388761</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.06761441829312077</v>
+        <v>-0.06134614863152731</v>
       </c>
       <c r="D10">
-        <v>0.9460952601070922</v>
+        <v>0.9514427422994716</v>
       </c>
       <c r="E10">
         <v>1.546586394388761</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.09208734506960062</v>
+        <v>0.1351800995618416</v>
       </c>
       <c r="D11">
-        <v>0.9266323034865496</v>
+        <v>0.8932666175886514</v>
       </c>
       <c r="E11">
         <v>1.574480972713002</v>
